--- a/Smart Parking system expenses.xlsx
+++ b/Smart Parking system expenses.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sharma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nandan T S\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A6AAE7-F213-4BDE-9490-4A8D4ECDB028}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>Components Purchased</t>
   </si>
@@ -107,9 +108,6 @@
     <t>Nikhil</t>
   </si>
   <si>
-    <t>5204-2400=2804</t>
-  </si>
-  <si>
     <t>18th Aug 2021</t>
   </si>
   <si>
@@ -147,12 +145,27 @@
   </si>
   <si>
     <t>SGST</t>
+  </si>
+  <si>
+    <t>5204-3600=1604</t>
+  </si>
+  <si>
+    <t>1604-387=1217</t>
+  </si>
+  <si>
+    <t>Individual Cost</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>11742/4=2935.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -488,11 +501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,9 +516,10 @@
     <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" customWidth="1"/>
     <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -524,8 +538,14 @@
       <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -538,8 +558,17 @@
       <c r="G2">
         <v>1200</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>387</v>
+      </c>
+      <c r="J2">
+        <v>1587</v>
+      </c>
+      <c r="K2">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -558,8 +587,14 @@
       <c r="G3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>1200</v>
+      </c>
+      <c r="K3">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -579,10 +614,19 @@
         <v>4934</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4">
+        <v>7755</v>
+      </c>
+      <c r="K4">
+        <v>-4820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -598,8 +642,17 @@
       <c r="F5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>1200</v>
+      </c>
+      <c r="J5">
+        <v>1200</v>
+      </c>
+      <c r="K5">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -612,8 +665,14 @@
       <c r="D6">
         <v>150</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6">
+        <v>11742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -627,7 +686,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -641,7 +700,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -654,8 +713,14 @@
       <c r="D9">
         <v>250</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -669,7 +734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -678,15 +743,15 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -700,7 +765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -714,7 +779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -780,15 +845,15 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -802,7 +867,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -830,7 +895,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -858,7 +923,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -872,7 +937,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -900,7 +965,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -914,7 +979,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -928,7 +993,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -942,7 +1007,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34">
         <f>SUM(D23:D33)</f>
@@ -951,7 +1016,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35">
         <v>396.85</v>
@@ -959,7 +1024,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36">
         <v>396.85</v>
